--- a/test folder (02190A)/rA0_A0/02190A0PD/02190A0 digikey order.xlsx
+++ b/test folder (02190A)/rA0_A0/02190A0PD/02190A0 digikey order.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
   <si>
     <t>Encoding:</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Creation Date:</t>
   </si>
   <si>
-    <t>24/03/2021</t>
+    <t>25/03/2021</t>
   </si>
   <si>
     <t>Designator</t>
@@ -130,6 +130,9 @@
     <t>Keystone Electronics</t>
   </si>
   <si>
+    <t>1043</t>
+  </si>
+  <si>
     <t>Digi-Key</t>
   </si>
   <si>
@@ -199,13 +202,13 @@
     <t>Header 2x1 RA TH</t>
   </si>
   <si>
-    <t>TSW-102-08-G-S-RA</t>
+    <t>TSW-102-08-L-S-RA</t>
   </si>
   <si>
     <t>SAM1043-02-ND</t>
   </si>
   <si>
-    <t>TSW-102-08-L-S-RA</t>
+    <t>TSW-102-08-F-S-RA</t>
   </si>
   <si>
     <t>SAM10325-ND</t>
@@ -220,9 +223,21 @@
     <t>Jumper 0805 2 pos</t>
   </si>
   <si>
+    <t>Panasonic</t>
+  </si>
+  <si>
+    <t>ERJ-6GEY0R00V</t>
+  </si>
+  <si>
     <t>P0.0ACT-ND</t>
   </si>
   <si>
+    <t>Yageo</t>
+  </si>
+  <si>
+    <t>RC0805FR-070RL</t>
+  </si>
+  <si>
     <t>311-0.0CRCT-ND</t>
   </si>
   <si>
@@ -232,9 +247,18 @@
     <t>Resistor 0R 2512 1W</t>
   </si>
   <si>
+    <t>RC2512JK-070RL</t>
+  </si>
+  <si>
     <t>YAG1232CT-ND</t>
   </si>
   <si>
+    <t>Stackpole Electronics</t>
+  </si>
+  <si>
+    <t>RMCF2512ZT0R00</t>
+  </si>
+  <si>
     <t>RMCF2512ZT0R00CT-ND</t>
   </si>
   <si>
@@ -247,7 +271,13 @@
     <t>Testpoint Hook</t>
   </si>
   <si>
+    <t>5016</t>
+  </si>
+  <si>
     <t>36-5016CT-ND</t>
+  </si>
+  <si>
+    <t>5018</t>
   </si>
   <si>
     <t>36-5018CT-ND</t>
@@ -1723,7 +1753,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="58" t="n">
-        <v>0</v>
+        <v>18.03</v>
       </c>
       <c r="H2" s="18" t="s"/>
       <c r="I2" s="18" t="s"/>
@@ -1846,221 +1876,253 @@
       <c r="F7" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="62" t="n">
-        <v>1043</v>
+      <c r="G7" s="62" t="s">
+        <v>38</v>
       </c>
       <c r="H7" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="62" t="s"/>
-      <c r="K7" s="62" t="s"/>
       <c r="L7" s="67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="68" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="N7" s="68" t="n">
+        <v>10.32</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="16.5" r="8" s="32" spans="1:14">
       <c r="A8" s="62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B8" s="63" t="s"/>
       <c r="C8" s="64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" s="66" t="n">
         <v>2</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G8" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="H8" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="64" t="s">
-        <v>45</v>
-      </c>
       <c r="K8" s="64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L8" s="67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M8" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="68" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="N8" s="68" t="n">
+        <v>2.16</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="16.5" r="9" s="32" spans="1:14">
       <c r="A9" s="62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="63" t="s"/>
       <c r="C9" s="64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" s="66" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" s="62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I9" s="62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J9" s="62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9" s="62" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M9" s="67" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="68" t="s"/>
+        <v>57</v>
+      </c>
+      <c r="N9" s="68" t="n">
+        <v>0.95</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="16.5" r="10" s="32" spans="1:14">
       <c r="A10" s="62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" s="64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D10" s="65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10" s="66" t="n">
         <v>2</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G10" s="64" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I10" s="64" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J10" s="64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10" s="64" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M10" s="67" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" s="68" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="N10" s="68" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="16.5" r="11" s="32" spans="1:14">
       <c r="A11" s="62" t="s"/>
       <c r="B11" s="63" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E11" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="62" t="s"/>
-      <c r="G11" s="62" t="s"/>
+      <c r="F11" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>70</v>
+      </c>
       <c r="H11" s="62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I11" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="62" t="s"/>
-      <c r="K11" s="62" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="J11" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="62" t="s">
+        <v>73</v>
+      </c>
       <c r="L11" s="67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M11" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="N11" s="68" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="N11" s="68" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="16.5" r="12" s="32" spans="1:14">
       <c r="A12" s="62" t="s"/>
       <c r="B12" s="63" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C12" s="64" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E12" s="66" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="64" t="s"/>
-      <c r="G12" s="64" t="s"/>
+      <c r="F12" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="64" t="s">
+        <v>77</v>
+      </c>
       <c r="H12" s="64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I12" s="64" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="64" t="s"/>
-      <c r="K12" s="64" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="J12" s="64" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="64" t="s">
+        <v>80</v>
+      </c>
       <c r="L12" s="67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M12" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12" s="68" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="N12" s="68" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="16.5" r="13" s="32" spans="1:14">
       <c r="A13" s="62" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B13" s="63" t="s"/>
       <c r="C13" s="64" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E13" s="66" t="n">
         <v>5</v>
@@ -2068,28 +2130,30 @@
       <c r="F13" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="62" t="n">
-        <v>5018</v>
+      <c r="G13" s="62" t="s">
+        <v>85</v>
       </c>
       <c r="H13" s="62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I13" s="62" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J13" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="62" t="n">
-        <v>5016</v>
+      <c r="K13" s="62" t="s">
+        <v>87</v>
       </c>
       <c r="L13" s="67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M13" s="67" t="s">
-        <v>78</v>
-      </c>
-      <c r="N13" s="68" t="s"/>
+        <v>88</v>
+      </c>
+      <c r="N13" s="68" t="n">
+        <v>2.2</v>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="16.5" r="14" s="32" spans="1:14">
       <c r="A14" s="40" t="s"/>
